--- a/api/templates/valorizacion.xlsx
+++ b/api/templates/valorizacion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\PROYECTS\BDF_SOP\S-OP_BDF\api\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A29A63-1F47-4E7A-A5FA-C726F4723E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B911D8-94A9-4E94-855B-53850EE66704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12135" yWindow="7200" windowWidth="18810" windowHeight="11070" xr2:uid="{B96385CE-A149-4059-AF89-DD6B5EDE4BC9}"/>
+    <workbookView xWindow="16470" yWindow="4080" windowWidth="18690" windowHeight="14685" xr2:uid="{B96385CE-A149-4059-AF89-DD6B5EDE4BC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>CLASIFICACION</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>NART</t>
   </si>
@@ -45,13 +42,7 @@
     <t>DESCRIPCION</t>
   </si>
   <si>
-    <t>BASELINE</t>
-  </si>
-  <si>
-    <t>LAUNCH</t>
-  </si>
-  <si>
-    <t>PROMO (+)</t>
+    <t>BRAND CATEGORY</t>
   </si>
 </sst>
 </file>
@@ -415,9 +406,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5275424E-C1AD-4158-AA2D-0EA3EFD82122}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
@@ -427,34 +420,19 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="13.5" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -466,18 +444,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -613,18 +591,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5F2B223-13A1-4FFB-A3DE-AA9496D637E2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A356296D-F921-43F5-A997-DA65D58B26E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5F2B223-13A1-4FFB-A3DE-AA9496D637E2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/api/templates/valorizacion.xlsx
+++ b/api/templates/valorizacion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\PROYECTS\BDF_SOP\S-OP_BDF\api\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B911D8-94A9-4E94-855B-53850EE66704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FCFA4F8-6020-4FCB-8D57-FE4A0173AC87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16470" yWindow="4080" windowWidth="18690" windowHeight="14685" xr2:uid="{B96385CE-A149-4059-AF89-DD6B5EDE4BC9}"/>
   </bookViews>
@@ -408,9 +408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5275424E-C1AD-4158-AA2D-0EA3EFD82122}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
@@ -444,18 +442,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -591,18 +589,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5F2B223-13A1-4FFB-A3DE-AA9496D637E2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A356296D-F921-43F5-A997-DA65D58B26E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5F2B223-13A1-4FFB-A3DE-AA9496D637E2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/api/templates/valorizacion.xlsx
+++ b/api/templates/valorizacion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\PROYECTS\BDF_SOP\S-OP_BDF\api\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FCFA4F8-6020-4FCB-8D57-FE4A0173AC87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26CF0CCE-6136-4C94-9D7A-36BC24C780FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16470" yWindow="4080" windowWidth="18690" windowHeight="14685" xr2:uid="{B96385CE-A149-4059-AF89-DD6B5EDE4BC9}"/>
+    <workbookView xWindow="12210" yWindow="3375" windowWidth="18690" windowHeight="14685" xr2:uid="{B96385CE-A149-4059-AF89-DD6B5EDE4BC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="7">
   <si>
     <t>NART</t>
   </si>
@@ -44,12 +44,24 @@
   <si>
     <t>BRAND CATEGORY</t>
   </si>
+  <si>
+    <t>price list</t>
+  </si>
+  <si>
+    <t>discount</t>
+  </si>
+  <si>
+    <t>rebates</t>
+  </si>
+  <si>
+    <t>com / cop</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,6 +73,12 @@
       <color theme="0" tint="-4.9989318521683403E-2"/>
       <name val="Avenir Next LT Pro Regular"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -89,9 +107,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,7 +428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5275424E-C1AD-4158-AA2D-0EA3EFD82122}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:BW2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
@@ -416,7 +438,7 @@
     <col min="3" max="3" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:75">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -427,10 +449,226 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="13.5" customHeight="1">
+    <row r="2" spans="1:75" ht="13.5" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AL2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AR2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AU2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AV2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AX2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AY2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AZ2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BA2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BC2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BD2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="BF2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BG2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BH2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BI2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="BJ2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BK2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BL2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BM2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="BN2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BO2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BP2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BQ2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="BR2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BS2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BT2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BU2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="BV2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="BW2" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -442,18 +680,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -589,18 +827,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5F2B223-13A1-4FFB-A3DE-AA9496D637E2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A356296D-F921-43F5-A997-DA65D58B26E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5F2B223-13A1-4FFB-A3DE-AA9496D637E2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
